--- a/attivitaGP/specifiche.xlsx
+++ b/attivitaGP/specifiche.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Dropbox\codiciPassaTempo\attivitaGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2940379A-835C-4AF2-B7C9-82A72D59D01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9331BD7C-C2E4-41C6-8E98-E8DDB663A34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="510" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4776" yWindow="3252" windowWidth="18900" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>Attivita</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Servizi</t>
   </si>
   <si>
-    <t>Scuola</t>
-  </si>
-  <si>
     <t>Strutture sanitarie</t>
   </si>
   <si>
@@ -226,6 +223,12 @@
   </si>
   <si>
     <t>Spostamenti con mezzo proprio da comuni di massimo 5.000 abitanti, verso altri comuni entro i 30 km, eccetto il capoluogo di provincia</t>
+  </si>
+  <si>
+    <t>Istruzione</t>
+  </si>
+  <si>
+    <t>Corsi di formazione privati svolti in presenza.</t>
   </si>
 </sst>
 </file>
@@ -543,13 +546,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -572,7 +577,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -583,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -594,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -605,7 +610,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -616,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -627,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -745,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -756,7 +761,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -767,10 +772,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
         <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,10 +783,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -789,10 +794,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -800,10 +805,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -811,10 +816,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,10 +827,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -833,10 +838,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -844,10 +849,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -855,10 +860,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -866,10 +871,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -877,10 +882,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -888,10 +893,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -899,10 +904,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -910,10 +915,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -921,10 +926,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -932,10 +937,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -943,10 +948,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -954,10 +959,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -965,10 +970,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -976,10 +981,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -987,10 +992,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -998,10 +1003,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1009,10 +1014,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1020,10 +1025,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1031,10 +1036,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1042,10 +1047,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1053,10 +1058,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1064,10 +1069,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1075,10 +1080,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1086,10 +1091,21 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
